--- a/data/SJV Portfolio Tool Spreadsheet v 0.1_END EDITED.xlsx
+++ b/data/SJV Portfolio Tool Spreadsheet v 0.1_END EDITED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DC771-81E2-D948-8E87-B985C6F59861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49918415-400B-1D4C-84FA-4262EA2FDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="880" windowWidth="30120" windowHeight="16920" activeTab="2" xr2:uid="{9C2185A5-4583-3441-AED7-AAC09E978B21}"/>
+    <workbookView xWindow="4460" yWindow="880" windowWidth="30120" windowHeight="16920" xr2:uid="{9C2185A5-4583-3441-AED7-AAC09E978B21}"/>
   </bookViews>
   <sheets>
     <sheet name="feedstock_to_commodity" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Gas Grid</t>
-  </si>
-  <si>
-    <t>Aninal Fats</t>
   </si>
 </sst>
 </file>
@@ -560,6 +557,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,8 +568,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E502A746-ADEC-3E4C-8448-0E4F842E0B37}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,7 +992,7 @@
       <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="21">
         <f>Z2/21</f>
         <v>857.14285714285711</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>1714.2857142857142</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:W15" si="0">$Z2/21+G2</f>
+        <f t="shared" ref="H2:W8" si="0">$Z2/21+G2</f>
         <v>2571.4285714285716</v>
       </c>
       <c r="I2">
@@ -1096,7 +1093,7 @@
       <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <f t="shared" ref="F3:F20" si="2">Z3/21</f>
         <v>23.80952380952381</v>
       </c>
@@ -1197,7 +1194,7 @@
       <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <f t="shared" si="2"/>
         <v>352.38095238095241</v>
       </c>
@@ -1298,7 +1295,7 @@
       <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <f t="shared" si="2"/>
         <v>95.238095238095241</v>
       </c>
@@ -1399,7 +1396,7 @@
       <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
@@ -1500,7 +1497,7 @@
       <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <f t="shared" si="2"/>
         <v>23.80952380952381</v>
       </c>
@@ -1601,7 +1598,7 @@
       <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <f t="shared" si="2"/>
         <v>9.5238095238095237</v>
       </c>
@@ -1702,7 +1699,7 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <f t="shared" si="2"/>
         <v>0.47619047619047616</v>
       </c>
@@ -1803,7 +1800,7 @@
       <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f t="shared" si="2"/>
         <v>4761.9047619047615</v>
       </c>
@@ -1904,7 +1901,7 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <f t="shared" si="2"/>
         <v>1428.5714285714287</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <f t="shared" si="2"/>
         <v>2380.9523809523807</v>
       </c>
@@ -2106,7 +2103,7 @@
       <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <f t="shared" si="2"/>
         <v>2380.9523809523807</v>
       </c>
@@ -2207,7 +2204,7 @@
       <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <f t="shared" si="2"/>
         <v>476.1904761904762</v>
       </c>
@@ -2308,7 +2305,7 @@
       <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <f t="shared" si="2"/>
         <v>238.0952380952381</v>
       </c>
@@ -2409,7 +2406,7 @@
       <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <f t="shared" si="2"/>
         <v>142.85714285714286</v>
       </c>
@@ -2510,7 +2507,7 @@
       <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <f t="shared" si="2"/>
         <v>142.85714285714286</v>
       </c>
@@ -2611,7 +2608,7 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <f t="shared" si="2"/>
         <v>2.3809523809523809</v>
       </c>
@@ -2712,7 +2709,7 @@
       <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <f t="shared" si="2"/>
         <v>2.3809523809523809</v>
       </c>
@@ -2799,7 +2796,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2813,7 +2810,7 @@
       <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <f t="shared" si="2"/>
         <v>0.11904761904761904</v>
       </c>
@@ -2918,357 +2915,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="22">
         <v>2025</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="22">
         <v>2026</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="22">
         <v>2027</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="22">
         <v>2028</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="22">
         <v>2029</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="22">
         <v>2030</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="22">
         <v>2031</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="22">
         <v>2032</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="22">
         <v>2033</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="22">
         <v>2034</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="22">
         <v>2035</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="22">
         <v>2036</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="22">
         <v>2037</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="22">
         <v>2038</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="22">
         <v>2039</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="22">
         <v>2040</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="22">
         <v>2041</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="22">
         <v>2042</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="22">
         <v>2043</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="22">
         <v>2044</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="22">
         <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25">
-        <v>1</v>
-      </c>
-      <c r="H2" s="25">
-        <v>1</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
-        <v>1</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
-        <v>1</v>
-      </c>
-      <c r="M2" s="25">
-        <v>1</v>
-      </c>
-      <c r="N2" s="25">
-        <v>1</v>
-      </c>
-      <c r="O2" s="25">
-        <v>1</v>
-      </c>
-      <c r="P2" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>1</v>
-      </c>
-      <c r="R2" s="25">
-        <v>1</v>
-      </c>
-      <c r="S2" s="25">
-        <v>1</v>
-      </c>
-      <c r="T2" s="25">
-        <v>1</v>
-      </c>
-      <c r="U2" s="25">
-        <v>1</v>
-      </c>
-      <c r="V2" s="25">
-        <v>1</v>
-      </c>
-      <c r="W2" s="25">
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2" s="22">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1</v>
+      </c>
+      <c r="O2" s="22">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>1</v>
+      </c>
+      <c r="W2" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>0.8</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>0.8</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>0.8</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>0.8</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>0.8</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <v>0.8</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <v>0.8</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="22">
         <v>0.8</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>0.8</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="22">
         <v>0.8</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="22">
         <v>0.8</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <v>0.8</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="22">
         <v>0.8</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="22">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="22">
         <v>0.8</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="22">
         <v>0.8</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="22">
         <v>0.8</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="22">
         <v>0.8</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="22">
         <v>0.8</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="22">
         <v>0.8</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="22">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>0.2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>0.2</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>0.2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>0.2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>0.2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0.2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <v>0.2</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <v>0.2</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <v>0.2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <v>0.2</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="22">
         <v>0.2</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <v>0.2</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <v>0.2</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="22">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="22">
         <v>0.2</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="22">
         <v>0.2</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="22">
         <v>0.2</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="22">
         <v>0.2</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="22">
         <v>0.2</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="22">
         <v>0.2</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25">
-        <v>1</v>
-      </c>
-      <c r="O5" s="25">
-        <v>1</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>1</v>
-      </c>
-      <c r="R5" s="25">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
-        <v>1</v>
-      </c>
-      <c r="T5" s="25">
-        <v>1</v>
-      </c>
-      <c r="U5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>1</v>
-      </c>
-      <c r="W5" s="25">
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1</v>
+      </c>
+      <c r="M5" s="22">
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
+        <v>1</v>
+      </c>
+      <c r="O5" s="22">
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22">
+        <v>1</v>
+      </c>
+      <c r="T5" s="22">
+        <v>1</v>
+      </c>
+      <c r="U5" s="22">
+        <v>1</v>
+      </c>
+      <c r="V5" s="22">
+        <v>1</v>
+      </c>
+      <c r="W5" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3494,7 +3491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A6663F-1DBB-0040-A290-FFF68815F211}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3514,30 +3511,30 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
